--- a/numbers-test.xlsx
+++ b/numbers-test.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sudeera Perera\OneDrive - engug.ruh.ac.lk\GENZ\Bulk SMS\SMS-selenium-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438A74F8-BE0D-4ACC-A3A4-8B76E3870003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657F8EBF-A600-4E63-A3E2-0A6998E3B23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="2565" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$31</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$C$1:$C$31</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,15 +29,25 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,7 +58,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,12 +66,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,33 +376,5252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:E986"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A959" workbookViewId="0">
+      <selection activeCell="E976" sqref="E976"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>775553787</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>713606717</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>719643466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>714912882</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>712438084</v>
+        <v>763595511</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>783892457</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>728399764</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>725213545</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>717865633</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>775557605</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>775127968</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>777747814</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>723236345</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>722961961</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>758677647</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>724054982</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>777375896</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>772715915</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>773588366</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>714158698</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>773598513</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>717940634</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>779055559</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>772367881</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>729448463</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>719684773</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>714627386</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>717142422</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>722998832</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>786812345</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>711235597</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>711235597</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>716411211</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>772259171</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>772259171</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>775233294</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>717142422</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>774054283</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>773555165</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>775200370</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>723684939</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>777712291</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>776612043</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>716003438</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>719294450</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>777344927</v>
+      </c>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>774466610</v>
+      </c>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>776562174</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>754646468</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>770257893</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>771527144</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>768548176</v>
+      </c>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>771952193</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>776311731</v>
+      </c>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>777387083</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>713009415</v>
+      </c>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>779022532</v>
+      </c>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>716602643</v>
+      </c>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>774681358</v>
+      </c>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>714990599</v>
+      </c>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>770774300</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>772367475</v>
+      </c>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>773828713</v>
+      </c>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>779082304</v>
+      </c>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>770097486</v>
+      </c>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>777357308</v>
+      </c>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>714800604</v>
+      </c>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>755470540</v>
+      </c>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>777324648</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>770750784</v>
+      </c>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>773410217</v>
+      </c>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>722289831</v>
+      </c>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>768242433</v>
+      </c>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>727311322</v>
+      </c>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>777388892</v>
+      </c>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>727311322</v>
+      </c>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>712369869</v>
+      </c>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>717712371</v>
+      </c>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>712700757</v>
+      </c>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>774946300</v>
+      </c>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>777274774</v>
+      </c>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>778640008</v>
+      </c>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>777372591</v>
+      </c>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>778379594</v>
+      </c>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>756104156</v>
+      </c>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>766670623</v>
+      </c>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>712667772</v>
+      </c>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>772405111</v>
+      </c>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>716010071</v>
+      </c>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>757900511</v>
+      </c>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>779714784</v>
+      </c>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>775521189</v>
+      </c>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>771061288</v>
+      </c>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>712766819</v>
+      </c>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>777411491</v>
+      </c>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>772009734</v>
+      </c>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>777566109</v>
+      </c>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>777752779</v>
+      </c>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>773442756</v>
+      </c>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>756646846</v>
+      </c>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>777387186</v>
+      </c>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>777354453</v>
+      </c>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>715467567</v>
+      </c>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>777762520</v>
+      </c>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>717421050</v>
+      </c>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>777421050</v>
+      </c>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>777224815</v>
+      </c>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>727888575</v>
+      </c>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>727111101</v>
+      </c>
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>776212803</v>
+      </c>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>714710267</v>
+      </c>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>777411231</v>
+      </c>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>777518449</v>
+      </c>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>713139652</v>
+      </c>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>777321887</v>
+      </c>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>777279929</v>
+      </c>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>773827674</v>
+      </c>
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>766559356</v>
+      </c>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>773449502</v>
+      </c>
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>774457383</v>
+      </c>
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>717316216</v>
+      </c>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>777295900</v>
+      </c>
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>714227370</v>
+      </c>
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>777425327</v>
+      </c>
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>777510201</v>
+      </c>
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>777611037</v>
+      </c>
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>774418686</v>
+      </c>
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>777914220</v>
+      </c>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>765259328</v>
+      </c>
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>774834193</v>
+      </c>
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>723975897</v>
+      </c>
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>778898979</v>
+      </c>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>777739000</v>
+      </c>
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>717150387</v>
+      </c>
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>778125482</v>
+      </c>
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>777388600</v>
+      </c>
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>772955010</v>
+      </c>
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>777363416</v>
+      </c>
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>718371601</v>
+      </c>
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>777738788</v>
+      </c>
+      <c r="E138" s="1"/>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>777387517</v>
+      </c>
+      <c r="E139" s="1"/>
+    </row>
+    <row r="140" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>759522588</v>
+      </c>
+      <c r="E140" s="1"/>
+    </row>
+    <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>714106730</v>
+      </c>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>772514734</v>
+      </c>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>777765356</v>
+      </c>
+      <c r="E143" s="1"/>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>777786632</v>
+      </c>
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>772955010</v>
+      </c>
+      <c r="E145" s="1"/>
+    </row>
+    <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>755886688</v>
+      </c>
+      <c r="E146" s="1"/>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>770886688</v>
+      </c>
+      <c r="E147" s="1"/>
+    </row>
+    <row r="148" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>777698010</v>
+      </c>
+      <c r="E148" s="1"/>
+    </row>
+    <row r="149" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>714032172</v>
+      </c>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>712701501</v>
+      </c>
+      <c r="E150" s="1"/>
+    </row>
+    <row r="151" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>703110010</v>
+      </c>
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>777070400</v>
+      </c>
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>773991226</v>
+      </c>
+      <c r="E153" s="1"/>
+    </row>
+    <row r="154" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>777498449</v>
+      </c>
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>777165090</v>
+      </c>
+      <c r="E155" s="1"/>
+    </row>
+    <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>773059640</v>
+      </c>
+      <c r="E156" s="1"/>
+    </row>
+    <row r="157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>716648314</v>
+      </c>
+      <c r="E157" s="1"/>
+    </row>
+    <row r="158" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>702066939</v>
+      </c>
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>787903985</v>
+      </c>
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>777009682</v>
+      </c>
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>764117913</v>
+      </c>
+      <c r="E161" s="1"/>
+    </row>
+    <row r="162" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>716689880</v>
+      </c>
+      <c r="E162" s="1"/>
+    </row>
+    <row r="163" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>772525639</v>
+      </c>
+      <c r="E163" s="1"/>
+    </row>
+    <row r="164" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>758539791</v>
+      </c>
+      <c r="E164" s="2"/>
+    </row>
+    <row r="165" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>770750784</v>
+      </c>
+      <c r="E165" s="1"/>
+    </row>
+    <row r="166" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>776797282</v>
+      </c>
+      <c r="E166" s="1"/>
+    </row>
+    <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>757189863</v>
+      </c>
+      <c r="E167" s="1"/>
+    </row>
+    <row r="168" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>719106423</v>
+      </c>
+      <c r="E168" s="1"/>
+    </row>
+    <row r="169" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>774549266</v>
+      </c>
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>776600944</v>
+      </c>
+      <c r="E170" s="2"/>
+    </row>
+    <row r="171" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>726866112</v>
+      </c>
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>773759952</v>
+      </c>
+      <c r="E172" s="2"/>
+    </row>
+    <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>779456107</v>
+      </c>
+      <c r="E173" s="1"/>
+    </row>
+    <row r="174" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>771527144</v>
+      </c>
+      <c r="E174" s="1"/>
+    </row>
+    <row r="175" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>715787979</v>
+      </c>
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>712295169</v>
+      </c>
+      <c r="E176" s="1"/>
+    </row>
+    <row r="177" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>776797282</v>
+      </c>
+      <c r="E177" s="1"/>
+    </row>
+    <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>757147429</v>
+      </c>
+      <c r="E178" s="1"/>
+    </row>
+    <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>773871788</v>
+      </c>
+      <c r="E179" s="1"/>
+    </row>
+    <row r="180" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>710955122</v>
+      </c>
+      <c r="E180" s="1"/>
+    </row>
+    <row r="181" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>771408697</v>
+      </c>
+      <c r="E181" s="1"/>
+    </row>
+    <row r="182" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>776984638</v>
+      </c>
+      <c r="E182" s="1"/>
+    </row>
+    <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>772587415</v>
+      </c>
+      <c r="E183" s="2"/>
+    </row>
+    <row r="184" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>777364442</v>
+      </c>
+      <c r="E184" s="1"/>
+    </row>
+    <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>776311731</v>
+      </c>
+      <c r="E185" s="3"/>
+    </row>
+    <row r="186" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>779106438</v>
+      </c>
+      <c r="E186" s="2"/>
+    </row>
+    <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>715200123</v>
+      </c>
+      <c r="E187" s="1"/>
+    </row>
+    <row r="188" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>727983303</v>
+      </c>
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>778276554</v>
+      </c>
+      <c r="E189" s="1"/>
+    </row>
+    <row r="190" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>771509341</v>
+      </c>
+      <c r="E190" s="1"/>
+    </row>
+    <row r="191" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>779082304</v>
+      </c>
+      <c r="E191" s="1"/>
+    </row>
+    <row r="192" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>711512964</v>
+      </c>
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>776345269</v>
+      </c>
+      <c r="E193" s="1"/>
+    </row>
+    <row r="194" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>785157696</v>
+      </c>
+      <c r="E194" s="1"/>
+    </row>
+    <row r="195" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>777791064</v>
+      </c>
+      <c r="E195" s="1"/>
+    </row>
+    <row r="196" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>716964408</v>
+      </c>
+      <c r="E196" s="1"/>
+    </row>
+    <row r="197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>713069383</v>
+      </c>
+      <c r="E197" s="1"/>
+    </row>
+    <row r="198" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>754796286</v>
+      </c>
+      <c r="E198" s="1"/>
+    </row>
+    <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>72837234</v>
+      </c>
+      <c r="E199" s="1"/>
+    </row>
+    <row r="200" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>702037203</v>
+      </c>
+      <c r="E200" s="1"/>
+    </row>
+    <row r="201" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>713009415</v>
+      </c>
+      <c r="E201" s="1"/>
+    </row>
+    <row r="202" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>779022532</v>
+      </c>
+      <c r="E202" s="2"/>
+    </row>
+    <row r="203" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>716602643</v>
+      </c>
+      <c r="E203" s="1"/>
+    </row>
+    <row r="204" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>770469497</v>
+      </c>
+      <c r="E204" s="1"/>
+    </row>
+    <row r="205" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>774681358</v>
+      </c>
+      <c r="E205" s="2"/>
+    </row>
+    <row r="206" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>722913311</v>
+      </c>
+      <c r="E206" s="2"/>
+    </row>
+    <row r="207" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>755848347</v>
+      </c>
+      <c r="E207" s="1"/>
+    </row>
+    <row r="208" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>774150275</v>
+      </c>
+      <c r="E208" s="2"/>
+    </row>
+    <row r="209" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>714990599</v>
+      </c>
+      <c r="E209" s="2"/>
+    </row>
+    <row r="210" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>773055579</v>
+      </c>
+      <c r="E210" s="2"/>
+    </row>
+    <row r="211" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>767348585</v>
+      </c>
+      <c r="E211" s="1"/>
+    </row>
+    <row r="212" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>755035798</v>
+      </c>
+      <c r="E212" s="2"/>
+    </row>
+    <row r="213" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>722825394</v>
+      </c>
+      <c r="E213" s="2"/>
+    </row>
+    <row r="214" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>772574353</v>
+      </c>
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>724191111</v>
+      </c>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>754525604</v>
+      </c>
+      <c r="E216" s="1"/>
+    </row>
+    <row r="217" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>777008994</v>
+      </c>
+      <c r="E217" s="1"/>
+    </row>
+    <row r="218" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>775080996</v>
+      </c>
+      <c r="E218" s="1"/>
+    </row>
+    <row r="219" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>773500730</v>
+      </c>
+      <c r="E219" s="1"/>
+    </row>
+    <row r="220" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>775280497</v>
+      </c>
+      <c r="E220" s="1"/>
+    </row>
+    <row r="221" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>715701729</v>
+      </c>
+      <c r="E221" s="2"/>
+    </row>
+    <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>728247147</v>
+      </c>
+      <c r="E222" s="2"/>
+    </row>
+    <row r="223" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>714497236</v>
+      </c>
+      <c r="E223" s="1"/>
+    </row>
+    <row r="224" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>773828713</v>
+      </c>
+      <c r="E224" s="1"/>
+    </row>
+    <row r="225" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>770420200</v>
+      </c>
+      <c r="E225" s="1"/>
+    </row>
+    <row r="226" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>714308441</v>
+      </c>
+      <c r="E226" s="1"/>
+    </row>
+    <row r="227" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>771520707</v>
+      </c>
+      <c r="E227" s="1"/>
+    </row>
+    <row r="228" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>776934517</v>
+      </c>
+      <c r="E228" s="1"/>
+    </row>
+    <row r="229" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>774242242</v>
+      </c>
+      <c r="E229" s="1"/>
+    </row>
+    <row r="230" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>717766811</v>
+      </c>
+      <c r="E230" s="1"/>
+    </row>
+    <row r="231" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>778777730</v>
+      </c>
+      <c r="E231" s="1"/>
+    </row>
+    <row r="232" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>713180181</v>
+      </c>
+      <c r="E232" s="2"/>
+    </row>
+    <row r="233" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>777704878</v>
+      </c>
+      <c r="E233" s="1"/>
+    </row>
+    <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>778098450</v>
+      </c>
+      <c r="E234" s="1"/>
+    </row>
+    <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>773413913</v>
+      </c>
+      <c r="E235" s="1"/>
+    </row>
+    <row r="236" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>777709599</v>
+      </c>
+      <c r="E236" s="1"/>
+    </row>
+    <row r="237" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>755470540</v>
+      </c>
+      <c r="E237" s="1"/>
+    </row>
+    <row r="238" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>777324648</v>
+      </c>
+      <c r="E238" s="1"/>
+    </row>
+    <row r="239" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>770723665</v>
+      </c>
+      <c r="E239" s="1"/>
+    </row>
+    <row r="240" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>777822127</v>
+      </c>
+      <c r="E240" s="1"/>
+    </row>
+    <row r="241" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>772276080</v>
+      </c>
+      <c r="E241" s="2"/>
+    </row>
+    <row r="242" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>766727900</v>
+      </c>
+      <c r="E242" s="1"/>
+    </row>
+    <row r="243" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>754427090</v>
+      </c>
+      <c r="E243" s="2"/>
+    </row>
+    <row r="244" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>756062956</v>
+      </c>
+      <c r="E244" s="1"/>
+    </row>
+    <row r="245" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>722850215</v>
+      </c>
+      <c r="E245" s="1"/>
+    </row>
+    <row r="246" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>711101010</v>
+      </c>
+      <c r="E246" s="1"/>
+    </row>
+    <row r="247" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>770260404</v>
+      </c>
+      <c r="E247" s="2"/>
+    </row>
+    <row r="248" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>773410861</v>
+      </c>
+      <c r="E248" s="2"/>
+    </row>
+    <row r="249" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>727311322</v>
+      </c>
+      <c r="E249" s="2"/>
+    </row>
+    <row r="250" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>777388892</v>
+      </c>
+      <c r="E250" s="1"/>
+    </row>
+    <row r="251" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>727311322</v>
+      </c>
+      <c r="E251" s="1"/>
+    </row>
+    <row r="252" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>774001000</v>
+      </c>
+      <c r="E252" s="2"/>
+    </row>
+    <row r="253" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>777592395</v>
+      </c>
+      <c r="E253" s="1"/>
+    </row>
+    <row r="254" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>716336462</v>
+      </c>
+      <c r="E254" s="1"/>
+    </row>
+    <row r="255" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>777901348</v>
+      </c>
+      <c r="E255" s="2"/>
+    </row>
+    <row r="256" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>716431115</v>
+      </c>
+      <c r="E256" s="2"/>
+    </row>
+    <row r="257" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>763761063</v>
+      </c>
+      <c r="E257" s="2"/>
+    </row>
+    <row r="258" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>776322838</v>
+      </c>
+      <c r="E258" s="1"/>
+    </row>
+    <row r="259" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>771505461</v>
+      </c>
+      <c r="E259" s="2"/>
+    </row>
+    <row r="260" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>779050700</v>
+      </c>
+      <c r="E260" s="1"/>
+    </row>
+    <row r="261" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>717119078</v>
+      </c>
+      <c r="E261" s="1"/>
+    </row>
+    <row r="262" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>729250128</v>
+      </c>
+      <c r="E262" s="1"/>
+    </row>
+    <row r="263" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>771644741</v>
+      </c>
+      <c r="E263" s="2"/>
+    </row>
+    <row r="264" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>711704470</v>
+      </c>
+      <c r="E264" s="1"/>
+    </row>
+    <row r="265" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>713555055</v>
+      </c>
+      <c r="E265" s="1"/>
+    </row>
+    <row r="266" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>774180816</v>
+      </c>
+      <c r="E266" s="1"/>
+    </row>
+    <row r="267" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>776718873</v>
+      </c>
+      <c r="E267" s="1"/>
+    </row>
+    <row r="268" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>757681850</v>
+      </c>
+      <c r="E268" s="1"/>
+    </row>
+    <row r="269" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>717424410</v>
+      </c>
+      <c r="E269" s="2"/>
+    </row>
+    <row r="270" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>774313836</v>
+      </c>
+      <c r="E270" s="1"/>
+    </row>
+    <row r="271" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>714288584</v>
+      </c>
+      <c r="E271" s="1"/>
+    </row>
+    <row r="272" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>722249096</v>
+      </c>
+      <c r="E272" s="1"/>
+    </row>
+    <row r="273" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>773031100</v>
+      </c>
+      <c r="E273" s="2"/>
+    </row>
+    <row r="274" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>715308149</v>
+      </c>
+      <c r="E274" s="2"/>
+    </row>
+    <row r="275" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>773569000</v>
+      </c>
+      <c r="E275" s="2"/>
+    </row>
+    <row r="276" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>752723176</v>
+      </c>
+      <c r="E276" s="1"/>
+    </row>
+    <row r="277" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>771898576</v>
+      </c>
+      <c r="E277" s="1"/>
+    </row>
+    <row r="278" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>715263453</v>
+      </c>
+      <c r="E278" s="2"/>
+    </row>
+    <row r="279" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>777316445</v>
+      </c>
+      <c r="E279" s="2"/>
+    </row>
+    <row r="280" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>777515414</v>
+      </c>
+      <c r="E280" s="2"/>
+    </row>
+    <row r="281" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>776355466</v>
+      </c>
+      <c r="E281" s="1"/>
+    </row>
+    <row r="282" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>777234815</v>
+      </c>
+      <c r="E282" s="1"/>
+    </row>
+    <row r="283" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>715182934</v>
+      </c>
+      <c r="E283" s="1"/>
+    </row>
+    <row r="284" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>773674160</v>
+      </c>
+      <c r="E284" s="2"/>
+    </row>
+    <row r="285" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>783857433</v>
+      </c>
+      <c r="E285" s="1"/>
+    </row>
+    <row r="286" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>715308149</v>
+      </c>
+      <c r="E286" s="1"/>
+    </row>
+    <row r="287" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>773031100</v>
+      </c>
+      <c r="E287" s="2"/>
+    </row>
+    <row r="288" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>778070002</v>
+      </c>
+      <c r="E288" s="1"/>
+    </row>
+    <row r="289" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>772519987</v>
+      </c>
+      <c r="E289" s="1"/>
+    </row>
+    <row r="290" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>727999315</v>
+      </c>
+      <c r="E290" s="1"/>
+    </row>
+    <row r="291" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>719535062</v>
+      </c>
+      <c r="E291" s="1"/>
+    </row>
+    <row r="292" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>713285464</v>
+      </c>
+      <c r="E292" s="1"/>
+    </row>
+    <row r="293" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>712696640</v>
+      </c>
+      <c r="E293" s="1"/>
+    </row>
+    <row r="294" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>711761899</v>
+      </c>
+      <c r="E294" s="1"/>
+    </row>
+    <row r="295" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>763907295</v>
+      </c>
+      <c r="E295" s="1"/>
+    </row>
+    <row r="296" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>776615280</v>
+      </c>
+      <c r="E296" s="2"/>
+    </row>
+    <row r="297" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>772396439</v>
+      </c>
+      <c r="E297" s="2"/>
+    </row>
+    <row r="298" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>779175952</v>
+      </c>
+      <c r="E298" s="1"/>
+    </row>
+    <row r="299" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>714773194</v>
+      </c>
+      <c r="E299" s="1"/>
+    </row>
+    <row r="300" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>777455499</v>
+      </c>
+      <c r="E300" s="2"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>787697239</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>779942477</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>785298949</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>711760622</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>716071520</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>716288927</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>770353919</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>774949433</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>777457573</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>777320300</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>772240106</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>777710262</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>774417314</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>719422326</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>772720255</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>712017045</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>712082000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>714803498</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>714005537</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>717106988</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>719941210</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>773413538</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>750607684</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>785557483</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>711237399</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>767768710</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>719269563</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>774966966</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>755178699</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>777224815</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>773318319</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>719588501</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>774242204</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>775339405</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>711689704</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>777803280</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>714764977</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>714858148</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>771023581</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>754114935</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>713680382</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>727111101</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>752775607</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>773318013</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>773112675</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>756814842</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>718264218</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>779732629</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>767330006</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>716040275</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>712876207</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>774244266</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>775342075</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>774616306</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>766099964</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>719295479</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>756455844</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>779778832</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>714147429</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>713070783</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>779194212</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>777920377</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>763729393</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>716080881</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>778798800</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>718044565</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>773374982</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>777974172</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>778044044</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>726665772</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>771319753</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>725616160</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>702909199</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>777950631</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>774247902</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>777655556</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>712092336</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>717651885</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>774346622</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>773409027</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>773413538</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>713225688</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>777519447</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>777107888</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>774025631</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>713284271</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>767915619</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>755760013</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>773572052</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>713182970</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>787482914</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>772388577</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>777530557</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>772955010</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>777363416</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>774720725</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>713529984</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>767687766</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>767687766</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>776530933</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>777839831</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>723392743</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>710150103</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>717341855</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>770332498</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>715392293</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>715509681</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>777407346</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>778284606</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>774785101</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>779252028</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>723294317</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>773970826</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>756216640</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>777719456</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>773592512</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>770633770</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>775176336</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>773748710</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>774456100</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>767763856</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>776991002</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>729633951</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>756394493</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>776163674</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>774723465</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>788810358</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>713507008</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>774154611</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>719961299</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>723571214</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>773881213</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>713875762</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>716057649</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>777434960</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>727650676</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>775873023</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>725286628</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>775495241</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>750341983</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>777843379</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>779523259</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>752364766</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>715264057</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>773119107</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>716201523</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>783965139</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>774891967</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>770275262</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>777883511</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>716337885</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>773271854</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>763121864</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>752862740</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>715531165</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>713718209</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>757979979</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>718928092</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>783970113</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>777208019</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>766883457</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>778017602</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>702999217</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>773368834</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>771767104</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>772163528</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>714754848</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>778577127</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>779934669</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>771770366</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>725204908</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>779135130</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>712225474</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>762427759</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>777318212</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>785941600</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>777490361</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>778984736</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>778842332</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>718571781</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>772336697</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>714438440</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>715555515</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>714033906</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>776624305</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>727272220</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>772954994</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>775586993</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>756050503</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>762840708</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>714199273</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>778010322</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>772366474</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>719787699</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>776999318</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>772282121</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>779101076</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>761040473</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>777786687</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>776016344</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>773690420</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>756537082</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>777357308</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>773770001</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>776756152</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>717630580</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>777043131</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>772298269</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>779702341</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>777508588</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>776138207</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>777241899</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>777220700</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>777423194</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>773139178</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>777878890</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>779579251</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>773741382</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>773424593</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>772512131</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>775767990</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>764095903</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>777145056</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>712920033</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>777399308</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>718395243</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>779044097</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>779399305</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>715878824</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>779640498</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>714446106</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>776319212</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>713744895</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>779257992</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>763620041</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>719268347</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>770348037</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>788668773</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>777446334</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>779174750</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>777356541</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>783241932</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>787421362</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>778896644</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>771557455</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>771160579</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>779851479</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>716746817</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>770293043</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>777489840</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>725864099</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>776909960</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>717509345</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>773073535</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>766175294</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>719683737</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>777312173</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>778312310</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>777312881</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>773207818</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>773515587</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>777651082</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>777779009</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>773066536</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>752227119</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>785410305</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>773066536</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>752227119</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>773556076</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>716099818</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>766699999</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>768230523</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>783619697</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>772178177</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>713995299</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>776160650</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>772354912</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>772442503</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>777562827</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>777703553</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>777703553</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>777562827</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>716186231</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>788268058</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>775904539</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>774300784</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>777316199</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>773676723</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>777508303</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>772411441</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>771975492</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>778014003</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>779417099</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>779558805</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>773474222</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>777375267</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>776363025</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>714196645</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>718488169</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>769299110</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>773834669</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>773517153</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>722974427</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>719016506</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>719558114</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>715623185</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>774185218</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>774476502</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>710604051</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>710604021</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>712220984</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>717944924</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>714244547</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>777254055</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>777781542</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>754032634</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>757899372</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>712904799</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>718352632</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>771831802</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>776917415</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>772226959</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>771839076</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>752999631</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>772343010</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>777197786</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>771367968</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>713270995</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>716210674</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>773763138</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>773855278</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>787615738</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>767389222</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>766704654</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>771765122</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>770221105</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>767666423</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>718191555</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>777415727</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>717967500</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>716520030</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>771500526</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>717742733</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>776864686</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>777612225</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>779836122</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>773083117</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>768036329</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>715111798</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>718207969</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>711450273</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>769114330</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>719359758</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>756277936</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>768057254</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>766423915</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>758405912</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>776612043</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>766625174</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>713637738</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>758886865</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>771171872</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>777329919</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>777880018</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>775311923</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>776029714</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>727322648</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>718738128</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>771871232</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>773207818</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>777268990</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>725929323</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>774593633</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>718352632</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>716185633</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>773364963</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>771831802</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>772226959</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>784713705</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>711401547</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>779186641</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>765141336</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>714801648</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>712663745</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>773656250</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>789999122</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>713270995</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>714801648</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>712261155</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>768020287</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>783294528</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>765266226</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>777587695</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>771169695</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>772408504</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>754369936</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>779181432</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>772209474</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>711450273</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>769114330</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>719359758</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>777793819</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>712300142</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>703919729</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>770711232</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>713637738</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>758886865</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>775675519</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>767834452</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>787333370</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>776029714</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>718738128</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>772888046</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>722855155</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>778594067</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>777730889</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>777730889</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>757553316</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>767553316</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>767254819</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>777790078</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>753725725</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>773981717</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>771503441</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>726733688</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>720695685</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>718100241</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>752439557</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>775539539</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>789317326</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>724626869</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>779291976</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>761205415</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>776736083</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>716060456</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>776636520</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>712344909</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>776428788</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>7773611122</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>777194786</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>772233510</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>702564904</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>718577686</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>775889168</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>712878789</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>775659000</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>718841515</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>777570056</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>778266800</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>712341025</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>775103337</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>770488667</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>725595435</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>771268909</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>776155454</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>719985000</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>714000849</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>764333333</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>714611754</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>715610745</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>778189733</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>772009734</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>777566109</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>714288737</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>773158818</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>712611580</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>715121607</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>776422328</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>777037183</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>774485414</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>776322838</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>771505461</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>779050700</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>711298807</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>712491937</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>717573915</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>773863332</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>716506105</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>777593013</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>713511067</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>773791361</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>717424410</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>774313836</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>773070374</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>773591308</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>768202109</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>718733317</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>717106988</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>773318319</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>777575491</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>714858148</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>763942404</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>777411231</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>775043086</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>717939482</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>778912947</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>779732629</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>712876207</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>773536796</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>789154601</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>777659655</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>713030757</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>767007768</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>723850850</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>772483145</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>777996426</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>774210810</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>777858891</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>757052036</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>777360836</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>777227921</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>715635131</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>712091709</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>710750860</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>712092336</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>716416889</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>777239415</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>771850261</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>774346622</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>713120089</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>716076079</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>777459686</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>777574191</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>777800090</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>722182854</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>778898979</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>758130955</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>776346177</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>787482914</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>714144236</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>777321887</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>771261257</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>777039698</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>719120003</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>767603489</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>767236994</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>771871871</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838">
+        <v>718512512</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839">
+        <v>715882700</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840">
+        <v>776306883</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841">
+        <v>772118910</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>772255667</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843">
+        <v>718684785</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844">
+        <v>771500059</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845">
+        <v>772226882</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846">
+        <v>776530933</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847">
+        <v>777311003</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848">
+        <v>775337399</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849">
+        <v>774817525</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850">
+        <v>773785320</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851">
+        <v>712055914</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852">
+        <v>717779554</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853">
+        <v>770332498</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854">
+        <v>715392293</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>716322219</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>771197938</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857">
+        <v>717252735</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858">
+        <v>777517534</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859">
+        <v>722244244</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860">
+        <v>777283479</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861">
+        <v>713048379</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862">
+        <v>771501154</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863">
+        <v>755277475</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864">
+        <v>714106730</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865">
+        <v>777256828</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866">
+        <v>719883750</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867">
+        <v>772003006</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868">
+        <v>710810304</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869">
+        <v>755886688</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870">
+        <v>770886688</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A871">
+        <v>712739118</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A872">
+        <v>715164164</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A873">
+        <v>777537502</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A874">
+        <v>777745800</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875">
+        <v>777496579</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876">
+        <v>773088600</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A877">
+        <v>777777017</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A878">
+        <v>777760150</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A879">
+        <v>713606717</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A880">
+        <v>714040980</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A881">
+        <v>755958308</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A882">
+        <v>777198436</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A883">
+        <v>771063493</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A884">
+        <v>776538558</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A885">
+        <v>772811882</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A886">
+        <v>777555026</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A887">
+        <v>772579125</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A888">
+        <v>777165119</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A889">
+        <v>775490473</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A890">
+        <v>714158698</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A891">
+        <v>763190613</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A892">
+        <v>718688477</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A893">
+        <v>712276334</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894">
+        <v>719684773</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A895">
+        <v>714627386</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A896">
+        <v>710580906</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A897">
+        <v>718079348</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A898">
+        <v>717142422</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A899">
+        <v>775282297</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A900">
+        <v>714554123</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A901">
+        <v>777377571</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A902">
+        <v>777269467</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A903">
+        <v>768242433</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A904">
+        <v>727311322</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A905">
+        <v>777388892</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A906">
+        <v>727311322</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A907">
+        <v>716386386</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A908">
+        <v>722429429</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A909">
+        <v>779997000</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A910">
+        <v>779975906</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A911">
+        <v>710814498</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A912">
+        <v>773287282</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A913">
+        <v>774200844</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A914">
+        <v>777497443</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A915">
+        <v>726497443</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A916">
+        <v>772330185</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A917">
+        <v>777715999</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A918">
+        <v>777274774</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A919">
+        <v>713917165</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A920">
+        <v>777143545</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A921">
+        <v>724981950</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A922">
+        <v>703988988</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A923">
+        <v>714823430</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A924">
+        <v>714071033</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A925">
+        <v>773601377</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A926">
+        <v>774623989</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A927">
+        <v>724881970</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A928">
+        <v>755886688</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A929">
+        <v>764712773</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A930">
+        <v>767635566</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A931">
+        <v>711464422</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A932">
+        <v>777327545</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A933">
+        <v>773039596</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A934">
+        <v>766776634</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A935">
+        <v>775452773</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A936">
+        <v>775452773</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A937">
+        <v>718776280</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A938">
+        <v>765545553</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A939">
+        <v>777263080</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A940">
+        <v>776691757</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A941">
+        <v>776015041</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A942">
+        <v>775826739</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A943">
+        <v>773251734</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A944">
+        <v>777414937</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A945">
+        <v>779147790</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A946">
+        <v>773256375</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A947">
+        <v>772106511</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A948">
+        <v>773072944</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A949">
+        <v>711875382</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A950">
+        <v>771310668</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A951">
+        <v>765477577</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A952">
+        <v>778360033</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A953">
+        <v>766205675</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A954">
+        <v>776959490</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A955">
+        <v>777388889</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A956">
+        <v>777292550</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A957">
+        <v>772906377</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A958">
+        <v>772506020</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A959">
+        <v>776868979</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A960">
+        <v>776871724</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A961">
+        <v>773773844</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A962">
+        <v>777883990</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A963">
+        <v>776550329</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A964">
+        <v>771651809</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A965">
+        <v>778545824</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A966">
+        <v>717537677</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A967">
+        <v>777707007</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A968">
+        <v>777606361</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A969">
+        <v>773931393</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A970">
+        <v>772857148</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A971">
+        <v>767772704</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A972">
+        <v>766535707</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A973">
+        <v>772906565</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A974">
+        <v>774627040</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A975">
+        <v>770862285</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A976">
+        <v>714414470</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A977">
+        <v>770751569</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A978">
+        <v>777356062</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A979">
+        <v>778202424</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A980">
+        <v>752965690</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A981">
+        <v>775679669</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A982">
+        <v>714810468</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A983">
+        <v>714452370</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A984">
+        <v>713075134</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A985">
+        <v>777163885</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A986">
+        <v>777163886</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>